--- a/InputData/dist-heat/EoCtUH/Efficiency of Conversion to Usable Heat.xlsx
+++ b/InputData/dist-heat/EoCtUH/Efficiency of Conversion to Usable Heat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\dist-heat\EoCtUH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/dist-heat/eoctuh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843E5DCE-5BE1-48F8-B588-2575D3565297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828CA225-A521-774D-B313-FB066D8675EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1470" windowWidth="14595" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="1480" windowWidth="14600" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -284,7 +284,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -300,8 +300,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -309,6 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -648,21 +649,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="18">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,126 +674,126 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="16">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -809,17 +813,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -842,7 +846,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.65</v>
       </c>
@@ -865,25 +869,25 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <f>AVERAGE(A3:G3)</f>
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -894,7 +898,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -905,7 +909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -916,7 +920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -927,7 +931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -938,7 +942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -949,7 +953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -960,7 +964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7</v>
       </c>
@@ -971,7 +975,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8</v>
       </c>
@@ -982,7 +986,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -993,7 +997,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>11</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>12</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1037,7 +1041,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1048,7 +1052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>16</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -1079,17 +1083,17 @@
         <v>3.6642857142857141</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
@@ -1112,18 +1116,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1132,7 +1136,7 @@
         <v>2.5702346938775507</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1150,7 +1154,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1168,7 +1172,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1177,7 +1181,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>

--- a/InputData/dist-heat/EoCtUH/Efficiency of Conversion to Usable Heat.xlsx
+++ b/InputData/dist-heat/EoCtUH/Efficiency of Conversion to Usable Heat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/dist-heat/eoctuh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/dist-heat/eoctuh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828CA225-A521-774D-B313-FB066D8675EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E49BD1-D7BD-C54A-980D-7DDB2DE1FFB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="1480" windowWidth="14600" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/dist-heat/EoCtUH/Efficiency of Conversion to Usable Heat.xlsx
+++ b/InputData/dist-heat/EoCtUH/Efficiency of Conversion to Usable Heat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/dist-heat/eoctuh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\dist-heat\EoCtUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E49BD1-D7BD-C54A-980D-7DDB2DE1FFB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843E5DCE-5BE1-48F8-B588-2575D3565297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1480" windowWidth="14600" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1470" windowWidth="14595" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -284,7 +284,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -300,8 +300,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -309,7 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -649,24 +648,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="18">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,126 +670,126 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -813,17 +809,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -846,7 +842,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.65</v>
       </c>
@@ -869,25 +865,25 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <f>AVERAGE(A3:G3)</f>
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -898,7 +894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -909,7 +905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -920,7 +916,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -931,7 +927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -942,7 +938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -953,7 +949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -964,7 +960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -975,7 +971,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -986,7 +982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -997,7 +993,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1008,7 +1004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -1019,7 +1015,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -1030,7 +1026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1041,7 +1037,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1052,7 +1048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1063,7 +1059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>16</v>
       </c>
@@ -1074,7 +1070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -1083,17 +1079,17 @@
         <v>3.6642857142857141</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
@@ -1116,18 +1112,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1136,7 +1132,7 @@
         <v>2.5702346938775507</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1145,7 +1141,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1154,7 +1150,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1163,7 +1159,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1172,7 +1168,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1181,7 +1177,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1190,7 +1186,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1199,7 +1195,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1208,7 +1204,7 @@
         <v>0.7014285714285714</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
